--- a/Data/Incident.xlsx
+++ b/Data/Incident.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enoch-Crown\Desktop\Main\Main\project\power bi\Incidents, accidents and violence in Nigeria\Incidents-accidents-and-violence-in-Nigeria\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CCCB3F-C2D2-4269-A587-CA8358993317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5198C2F-64FC-4F2C-BC80-18D8D56FEF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0267E55-2A42-48A0-929D-E9FFDAC70574}"/>
   </bookViews>
@@ -15371,7 +15371,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB1DDFD-5B2F-4ACB-9CB7-C0A34CC29BBB}" name="Table4" displayName="Table4" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB1DDFD-5B2F-4ACB-9CB7-C0A34CC29BBB}" name="Data" displayName="Data" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:G1048576" xr:uid="{AFB1DDFD-5B2F-4ACB-9CB7-C0A34CC29BBB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F3291">
     <sortCondition ref="B1:B3291"/>
@@ -15709,7 +15709,7 @@
   <dimension ref="A1:J3291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
